--- a/ezclimate/GA_Fmincon/m.xlsx
+++ b/ezclimate/GA_Fmincon/m.xlsx
@@ -53,7 +53,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -63,6 +66,19 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,16 +119,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,8 +413,8 @@
   </sheetPr>
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A65" sqref="A1:E65"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,8 +459,7 @@
         <v>1.2086478997069443E-3</v>
       </c>
       <c r="E3" s="4">
-        <f>C3-A3</f>
-        <v>-0.83055959858328654</v>
+        <v>-4.5012796040788672E-4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -458,9 +475,8 @@
       <c r="D4" s="4">
         <v>2.4392548510937724E-3</v>
       </c>
-      <c r="E4" s="4">
-        <f t="shared" ref="E4:E65" si="0">C4-A4</f>
-        <v>-0.97916016819591778</v>
+      <c r="E4" s="6">
+        <v>-1.8836616728844513E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -477,8 +493,7 @@
         <v>2.799760410296103E-4</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.84269275466192861</v>
+        <v>9.8963824153175395E-4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -494,9 +509,8 @@
       <c r="D6" s="4">
         <v>9.6525300052057086E-3</v>
       </c>
-      <c r="E6" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.2611072203443565</v>
+      <c r="E6" s="5">
+        <v>-8.1844337089822528E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -513,8 +527,7 @@
         <v>1.2480852036551534E-3</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.024525866350404</v>
+        <v>6.112777493623156E-4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -530,9 +543,8 @@
       <c r="D8" s="4">
         <v>2.2586412392524907E-4</v>
       </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.0378062857752099</v>
+      <c r="E8" s="6">
+        <v>1.4004629605659513E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -548,9 +560,8 @@
       <c r="D9" s="4">
         <v>7.3452177050395374E-4</v>
       </c>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.9027905269498494</v>
+      <c r="E9" s="6">
+        <v>1.8584314499390242E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -566,9 +577,8 @@
       <c r="D10" s="4">
         <v>6.2660248268394227E-3</v>
       </c>
-      <c r="E10" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.1131299181952503</v>
+      <c r="E10" s="6">
+        <v>4.8572963216235721E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -584,9 +594,8 @@
       <c r="D11" s="4">
         <v>8.0482655458915774E-3</v>
       </c>
-      <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.0811704045340247</v>
+      <c r="E11" s="5">
+        <v>5.6556925588053808E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -603,8 +612,7 @@
         <v>3.4802756384109723E-4</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.1789021680297112</v>
+        <v>3.538920559909009E-4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -621,8 +629,7 @@
         <v>2.5540717182303552E-3</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.1359492882997013</v>
+        <v>1.305345051068052E-3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -639,8 +646,7 @@
         <v>2.8250083833822461E-4</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.2039079037462581</v>
+        <v>7.5905513752561049E-4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -657,8 +663,7 @@
         <v>2.767667665654897E-4</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.1610014991820572</v>
+        <v>-2.8647809772053279E-4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -675,8 +680,7 @@
         <v>3.2232594831687633E-3</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.2044341134635335</v>
+        <v>1.3512681094847157E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -693,8 +697,7 @@
         <v>1.0109314148090726E-3</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.90807132665287826</v>
+        <v>1.9236568662256426E-3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -711,8 +714,7 @@
         <v>1.6289006642796059E-3</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.0214329727541778</v>
+        <v>-1.023672329986125E-3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -729,8 +731,7 @@
         <v>1.3327771347783181E-3</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.98570414189223621</v>
+        <v>-9.4639968538967612E-4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -747,8 +748,7 @@
         <v>3.2271138571867259E-3</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.0213996105919838</v>
+        <v>-1.6959016679229943E-3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -765,8 +765,7 @@
         <v>2.8114100983991563E-3</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.9830247640669082</v>
+        <v>-1.3646468517443111E-3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -783,8 +782,7 @@
         <v>1.0397869550754836E-4</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.0345574280467873</v>
+        <v>1.4016129334937233E-6</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -801,8 +799,7 @@
         <v>6.1739963053496474E-5</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.99721666790252328</v>
+        <v>8.3420506336950861E-4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -819,8 +816,7 @@
         <v>2.8306400312731175E-3</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.0442133885008162</v>
+        <v>-1.1649501931578765E-3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -837,8 +833,7 @@
         <v>3.7458517297776928E-3</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.0068492527130257</v>
+        <v>-1.9944573364103491E-3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -855,8 +850,7 @@
         <v>8.0586394993497509E-5</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.034955717342696</v>
+        <v>-1.5692340742095023E-3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -873,8 +867,7 @@
         <v>4.292113723014415E-4</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.99865844786005054</v>
+        <v>-1.7823795433680178E-3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -891,8 +884,7 @@
         <v>1.0360481615904307E-4</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.0510821564377559</v>
+        <v>-6.670108636590566E-4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -909,8 +901,7 @@
         <v>7.1859565466843756E-4</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.0151483190401389</v>
+        <v>-1.0222445116672141E-3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -927,8 +918,7 @@
         <v>4.0989968708567267E-3</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.0575570368957843</v>
+        <v>-2.7306444138397445E-3</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -945,8 +935,7 @@
         <v>4.6672534634805288E-3</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.0216924304890707</v>
+        <v>-2.7426970192752087E-3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -963,8 +952,7 @@
         <v>3.4195192529714947E-3</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.2962744379473647</v>
+        <v>-2.7204496977792925E-3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -981,8 +969,7 @@
         <v>3.3267662294213041E-3</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.1812488126003826</v>
+        <v>-1.6527769642302736E-3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -999,8 +986,7 @@
         <v>1.4008836959308714E-4</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.9417594167081762</v>
+        <v>-5.1153054913655183E-5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1017,8 +1003,7 @@
         <v>4.4795789398441202E-4</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.9246694980337008</v>
+        <v>3.1644055850055253E-4</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1035,8 +1020,7 @@
         <v>5.9469526267955086E-4</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.96084543753817431</v>
+        <v>7.9470581188512135E-5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1053,8 +1037,7 @@
         <v>6.9915313209606184E-5</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.93564692972649144</v>
+        <v>-2.7351147737553205E-4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1071,8 +1054,7 @@
         <v>3.9756568040398316E-4</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.95899758858033346</v>
+        <v>-1.4145088897088431E-4</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1089,8 +1071,7 @@
         <v>1.0106406573177791E-4</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.9336561656015111</v>
+        <v>-4.6924205409348829E-4</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1107,8 +1088,7 @@
         <v>1.2229847529614769E-3</v>
       </c>
       <c r="E40" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.97358948518463106</v>
+        <v>-7.5781825303544714E-5</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1125,8 +1105,7 @@
         <v>2.7947432770896517E-3</v>
       </c>
       <c r="E41" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.95301129800181139</v>
+        <v>-1.9049368538796019E-3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1143,8 +1122,7 @@
         <v>2.8023624776808112E-4</v>
       </c>
       <c r="E42" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.9556310698056627</v>
+        <v>-1.9535431469697162E-4</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1161,8 +1139,7 @@
         <v>7.5713974949819353E-4</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.93067131047213936</v>
+        <v>-5.2971455020001113E-4</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1179,8 +1156,7 @@
         <v>6.0346230148347927E-4</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.96870446015470768</v>
+        <v>-1.81497961629562E-3</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1197,8 +1173,7 @@
         <v>3.9638872973337498E-4</v>
       </c>
       <c r="E45" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.9490756548882463</v>
+        <v>-2.2253220955780195E-3</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1215,8 +1190,7 @@
         <v>2.8062868393705515E-4</v>
       </c>
       <c r="E46" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.96339897408807951</v>
+        <v>2.1849692562680989E-4</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1233,8 +1207,7 @@
         <v>4.1344285458269555E-4</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.94463022603530233</v>
+        <v>-2.65958791098031E-4</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1251,8 +1224,7 @@
         <v>1.4113833463826055E-3</v>
       </c>
       <c r="E48" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.98184626299381084</v>
+        <v>1.0861841514451243E-3</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1268,9 +1240,8 @@
       <c r="D49" s="4">
         <v>0.1255898461075465</v>
       </c>
-      <c r="E49" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.72101221724023712</v>
+      <c r="E49" s="5">
+        <v>4.8917913063218577E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1287,8 +1258,7 @@
         <v>2.3277165046521519E-4</v>
       </c>
       <c r="E50" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.95481302382558297</v>
+        <v>-7.8718870975547084E-5</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1305,8 +1275,7 @@
         <v>2.7786022976838178E-4</v>
       </c>
       <c r="E51" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.92920201638350741</v>
+        <v>-4.2494136907944569E-4</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1323,8 +1292,7 @@
         <v>1.3845852083350636E-3</v>
       </c>
       <c r="E52" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.9667199653720091</v>
+        <v>-2.5530419739328014E-4</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1341,8 +1309,7 @@
         <v>6.6816418048820539E-4</v>
       </c>
       <c r="E53" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.94890584790539911</v>
+        <v>-2.4361144733620055E-4</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1359,8 +1326,7 @@
         <v>9.1994537311899515E-4</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.96245368361675454</v>
+        <v>5.3280027728486168E-4</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1377,8 +1343,7 @@
         <v>2.6546221090437995E-4</v>
       </c>
       <c r="E55" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.94268453310943701</v>
+        <v>-8.9694268396889321E-5</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1395,8 +1360,7 @@
         <v>9.5129918701072728E-4</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.98033313739716943</v>
+        <v>5.1203200250526937E-4</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1412,9 +1376,8 @@
       <c r="D57" s="4">
         <v>8.1424982297861215E-2</v>
       </c>
-      <c r="E57" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.82427305931732575</v>
+      <c r="E57" s="5">
+        <v>6.43886179508949E-2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1431,8 +1394,7 @@
         <v>4.5346138611959452E-4</v>
       </c>
       <c r="E58" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.96075707152924705</v>
+        <v>-1.0156683393203192E-4</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1449,8 +1411,7 @@
         <v>7.809316544053563E-4</v>
       </c>
       <c r="E59" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.93958044227934856</v>
+        <v>6.0149605128401173E-4</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1467,8 +1428,7 @@
         <v>1.2555636305797925E-3</v>
       </c>
       <c r="E60" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.97642372498117214</v>
+        <v>3.5754915268826348E-4</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1484,9 +1444,8 @@
       <c r="D61" s="4">
         <v>2.8294878003474284E-3</v>
       </c>
-      <c r="E61" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.84404589296807964</v>
+      <c r="E61" s="5">
+        <v>-1.1512148935445832E-2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1503,8 +1462,7 @@
         <v>3.10067870567368E-3</v>
       </c>
       <c r="E62" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.98768376562006477</v>
+        <v>1.0398204093343688E-3</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1521,8 +1479,7 @@
         <v>1.7310475046272299E-3</v>
       </c>
       <c r="E63" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.96042905020183944</v>
+        <v>-1.2747158521312363E-3</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1539,8 +1496,7 @@
         <v>6.8937436828068219E-4</v>
       </c>
       <c r="E64" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.0750338429412736</v>
+        <v>-3.0552963644552289E-3</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -1556,9 +1512,8 @@
       <c r="D65" s="4">
         <v>0</v>
       </c>
-      <c r="E65" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.26363940693967658</v>
+      <c r="E65" s="5">
+        <v>0.60578101847118027</v>
       </c>
     </row>
   </sheetData>
@@ -1575,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H63"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3670,7 +3625,7 @@
   <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S63"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ezclimate/GA_Fmincon/m.xlsx
+++ b/ezclimate/GA_Fmincon/m.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,12 +125,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,1106 +413,1106 @@
   </sheetPr>
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection sqref="A1:E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>0.83188221296535803</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>1.3160054636960101E-3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1.3226143820715202E-3</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1.2086478997069443E-3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>-4.5012796040788672E-4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>0.98173916197201305</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>2.6454518162945702E-3</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>2.5789937760952678E-3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>2.4392548510937724E-3</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>-1.8836616728844513E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>0.84524452303026498</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>2.3814749553771599E-3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>2.5517683683363344E-3</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>2.799760410296103E-4</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>9.8963824153175395E-4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>1.2738810998932799</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>1.26969477050981E-2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>1.2773879548923447E-2</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>9.6525300052057086E-3</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>-8.1844337089822528E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>1.02553816340176</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>1.0734676220414299E-3</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>1.0122970513559389E-3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>1.2480852036551534E-3</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>6.112777493623156E-4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>1.0410751212260601</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>3.0561757015344902E-3</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>3.2688354508500338E-3</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>2.2586412392524907E-4</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>1.4004629605659513E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>0.90944767487580802</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>6.1799077191316502E-3</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>6.6571479259586045E-3</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>7.3452177050395374E-4</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>1.8584314499390242E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>1.1203223445634201</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>7.2711042376869704E-3</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>7.1924263681697707E-3</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>6.2660248268394227E-3</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>4.8572963216235721E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>1.0876610812724301</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>7.04301519410978E-3</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>6.4906767384054105E-3</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>8.0482655458915774E-3</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>5.6556925588053808E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>1.1795456276344101</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>6.2134591702648397E-4</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>6.4345960469894411E-4</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>3.4802756384109723E-4</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>3.538920559909009E-4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>1.1384159848434501</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>2.5234194937490198E-3</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>2.4666965437487032E-3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>2.5540717182303552E-3</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>1.305345051068052E-3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>1.20584948862132</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>1.8137588210767499E-3</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>1.9415848750618345E-3</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>2.8250083833822461E-4</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>7.5905513752561049E-4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>1.16327186972243</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>2.0984158060959601E-3</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>2.2703705403727464E-3</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>2.767667665654897E-4</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>-2.8647809772053279E-4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>1.20846314792265</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>3.9483371978522499E-3</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>4.0290344591164375E-3</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>3.2232594831687633E-3</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>1.3512681094847157E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>0.92373025222232796</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>1.4458449534672299E-2</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>1.5658925569449717E-2</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>1.0109314148090726E-3</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>1.9236568662256426E-3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>1.02267924252557</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>1.3608143114437099E-3</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>1.2462697713922504E-3</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>1.6289006642796059E-3</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>-1.023672329986125E-3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>0.98675593766975001</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>1.1493370541660001E-3</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>1.0517957775137553E-3</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>1.3327771347783181E-3</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>-9.4639968538967612E-4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>1.0231401142813801</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>2.1222135190757099E-3</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>1.7405036893963477E-3</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>3.2271138571867259E-3</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>-1.6959016679229943E-3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>0.98503517861646195</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>2.2042105059243799E-3</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>2.010414549553711E-3</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>2.8114100983991563E-3</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>-1.3646468517443111E-3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>1.0346883102893301</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>1.27210939172428E-4</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>1.3088224254266922E-4</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>1.0397869550754836E-4</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>1.4016129334937233E-6</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>0.99807687246575605</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>8.4750096558009705E-4</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>8.6020456323280723E-4</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>6.1739963053496474E-5</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>8.3420506336950861E-4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>1.0474324756423601</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>3.1910897136506401E-3</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>3.2190871415439114E-3</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>2.8306400312731175E-3</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>-1.1649501931578765E-3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>1.01100623964959</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>4.1593686140910099E-3</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>4.1569869365643336E-3</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>3.7458517297776928E-3</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>-1.9944573364103491E-3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>1.03843139489715</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>3.2531871456499802E-3</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>3.4756775544539675E-3</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>8.0586394993497509E-5</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>-1.5692340742095023E-3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>1.0026863216166899</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>3.7713243173315299E-3</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>4.0278737566393471E-3</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>4.292113723014415E-4</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>-1.7823795433680178E-3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>1.05316489083938</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>1.9353166377887401E-3</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>2.0827344016240987E-3</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>1.0360481615904307E-4</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>-6.670108636590566E-4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>1.0172366190763</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>1.9792776161816298E-3</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>2.088300036161117E-3</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>7.1859565466843756E-4</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>-1.0222445116672141E-3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>1.0618519217759199</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>4.3760816294154499E-3</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>4.2948848801357027E-3</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>4.0989968708567267E-3</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>-2.7306444138397445E-3</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>1.02661926855132</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>4.9859067246122001E-3</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>4.9268380622493725E-3</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>4.6672534634805288E-3</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>-2.7426970192752087E-3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>1.3127436344066099</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>1.52724209585652E-2</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>1.6469196459245258E-2</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>3.4195192529714947E-3</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>-2.7204496977792925E-3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>1.2041639662435399</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>2.11742064949028E-2</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>2.2915153643157344E-2</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>3.3267662294213041E-3</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>-1.6527769642302736E-3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>0.94197722626106795</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>2.0881136173947999E-4</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>2.1780955289170818E-4</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>1.4008836959308714E-4</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>-5.1153054913655183E-5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>0.92484205390893603</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>2.6110593010223701E-4</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>1.7255587523520643E-4</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>4.4795789398441202E-4</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>3.1644055850055253E-4</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>0.96128361754610003</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>4.6589276164629999E-4</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>4.3818000792574115E-4</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>5.9469526267955086E-4</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>7.9470581188512135E-5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>0.93613201579139405</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>4.5856681826550102E-4</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>4.8508606490261607E-4</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>6.9915313209606184E-5</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>-2.7351147737553205E-4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>0.95945617740222899</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>4.5278911990188399E-4</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>4.5858882189549741E-4</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>3.9756568040398316E-4</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>-1.4145088897088431E-4</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>0.934241152333529</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>5.66113178064555E-4</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>5.8498673201792643E-4</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>1.0106406573177791E-4</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>-4.6924205409348829E-4</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>0.97478503977689401</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>1.20001422464849E-3</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>1.1955545922629955E-3</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>1.2229847529614769E-3</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>-7.5781825303544714E-5</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>0.95590792877504505</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>2.9607698106920099E-3</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>2.8966307732336462E-3</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>2.7947432770896517E-3</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>-1.9049368538796019E-3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>0.95595390481865505</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>3.2439906559767801E-4</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>3.2283501299234103E-4</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>2.8023624776808112E-4</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <v>-1.9535431469697162E-4</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>0.931098133405041</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>5.2594335772214798E-4</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>4.2682293290159705E-4</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>7.5713974949819353E-4</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <v>-5.2971455020001113E-4</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>0.96977446572207304</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>1.20324743628459E-3</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>1.0700055673653116E-3</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>6.0346230148347927E-4</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>-1.81497961629562E-3</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>0.95145033244530397</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>2.33413485652813E-3</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>2.374677557057666E-3</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>3.9638872973337498E-4</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <v>-2.2253220955780195E-3</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>0.96433301848757602</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>8.7147744291706799E-4</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>9.3404439949652915E-4</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>2.8062868393705515E-4</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <v>2.1849692562680989E-4</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>0.94540760819751901</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <v>7.4049538575901499E-4</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>7.7738216221668276E-4</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <v>4.1344285458269555E-4</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <v>-2.65958791098031E-4</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>0.98393892589154497</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <v>2.0424438148870599E-3</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>2.0926628977341729E-3</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <v>1.4113833463826055E-3</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <v>1.0861841514451243E-3</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>0.82758111955969105</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>0.111015383618617</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>0.1065689023194539</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <v>0.1255898461075465</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <v>4.8917913063218577E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>0.95507240388819004</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>2.5710656305887199E-4</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>2.5938006260708252E-4</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <v>2.3277165046521519E-4</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>-7.8718870975547084E-5</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>0.93004384565636899</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>7.9810984573233505E-4</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>8.4182927286161925E-4</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="3">
         <v>2.7786022976838178E-4</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="3">
         <v>-4.2494136907944569E-4</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>0.96774994249666502</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>1.09434768484337E-3</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>1.0299771246558849E-3</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <v>1.3845852083350636E-3</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <v>-2.5530419739328014E-4</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>0.95012199040230505</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>1.1539867313703799E-3</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>1.2161424969059299E-3</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="3">
         <v>6.6816418048820539E-4</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="3">
         <v>-2.4361144733620055E-4</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>0.96314679419946303</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <v>7.5596366882591296E-4</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>6.9311058270853326E-4</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="3">
         <v>9.1994537311899515E-4</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="3">
         <v>5.3280027728486168E-4</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>0.94319880626921904</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <v>4.86211500924671E-4</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>5.1427315978207406E-4</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="3">
         <v>2.6546221090437995E-4</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="3">
         <v>-8.9694268396889321E-5</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>0.98101696381278403</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <v>7.5276081297255895E-4</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>6.8382641561455884E-4</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="3">
         <v>9.5129918701072728E-4</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="3">
         <v>5.1203200250526937E-4</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>0.86249953639418198</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="3">
         <v>5.2584975792422703E-2</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>3.8226477076856266E-2</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="3">
         <v>8.1424982297861215E-2</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="4">
         <v>6.43886179508949E-2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>0.96158199224033702</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="3">
         <v>7.8139580509894297E-4</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>8.2492071108996668E-4</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="3">
         <v>4.5346138611959452E-4</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="3">
         <v>-1.0156683393203192E-4</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>0.94053199782853902</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <v>9.5249492768039303E-4</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <v>9.5155554919049016E-4</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="3">
         <v>7.809316544053563E-4</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="3">
         <v>6.0149605128401173E-4</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
         <v>0.97798055428347397</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="3">
         <v>1.5208305749358801E-3</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>1.5568293023018149E-3</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="3">
         <v>1.2555636305797925E-3</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="3">
         <v>3.5754915268826348E-4</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>0.88400207725747004</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="3">
         <v>3.7082618357880098E-2</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>3.9956184289390351E-2</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="3">
         <v>2.8294878003474284E-3</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="4">
         <v>-1.1512148935445832E-2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <v>0.99441392555089503</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="3">
         <v>6.33093851118485E-3</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>6.7301599308302465E-3</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="3">
         <v>3.10067870567368E-3</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="3">
         <v>1.0398204093343688E-3</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>0.96943435913496001</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="3">
         <v>8.3419364818674204E-3</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>9.0053089331205444E-3</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="3">
         <v>1.7310475046272299E-3</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="3">
         <v>-1.2747158521312363E-3</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <v>1.08325871758345</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="3">
         <v>7.6656868951558398E-3</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>8.2248746421764631E-3</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="3">
         <v>6.8937436828068219E-4</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="3">
         <v>-3.0552963644552289E-3</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>0.51492386570050297</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="3">
         <v>0.31695591843482102</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>0.25128445876082639</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="3">
         <v>0</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="4">
         <v>0.60578101847118027</v>
       </c>
     </row>
@@ -1530,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
